--- a/data/financial_statements/soci/PYPL.xlsx
+++ b/data/financial_statements/soci/PYPL.xlsx
@@ -14,9 +14,117 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -134,9 +242,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -189,12 +294,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -499,135 +601,135 @@
   <sheetData>
     <row r="1" spans="1:37">
       <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:37">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B2">
-        <v>6690000000</v>
+        <v>6846000000</v>
       </c>
       <c r="C2">
-        <v>6699000000</v>
+        <v>6806000000</v>
       </c>
       <c r="D2">
-        <v>6436000000</v>
+        <v>6483000000</v>
       </c>
       <c r="E2">
-        <v>6916000000</v>
+        <v>6918000000</v>
       </c>
       <c r="F2">
-        <v>6226000000</v>
+        <v>6182000000</v>
       </c>
       <c r="G2">
         <v>6238000000</v>
@@ -721,23 +823,23 @@
       </c>
     </row>
     <row r="3" spans="1:37">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B3">
-        <v>0.0745</v>
+        <v>0.1074</v>
       </c>
       <c r="C3">
-        <v>0.07389999999999999</v>
+        <v>0.0911</v>
       </c>
       <c r="D3">
-        <v>0.0668</v>
+        <v>0.0746</v>
       </c>
       <c r="E3">
-        <v>0.1308</v>
+        <v>0.1311</v>
       </c>
       <c r="F3">
-        <v>0.1405</v>
+        <v>0.1324</v>
       </c>
       <c r="G3">
         <v>0.1857</v>
@@ -831,8 +933,8 @@
       </c>
     </row>
     <row r="4" spans="1:37">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B4">
         <v>3864000000</v>
@@ -941,23 +1043,23 @@
       </c>
     </row>
     <row r="5" spans="1:37">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B5">
-        <v>2826000000</v>
+        <v>2982000000</v>
       </c>
       <c r="C5">
-        <v>2671000000</v>
+        <v>2778000000</v>
       </c>
       <c r="D5">
-        <v>2716000000</v>
+        <v>2763000000</v>
       </c>
       <c r="E5">
-        <v>3082000000</v>
+        <v>3084000000</v>
       </c>
       <c r="F5">
-        <v>2890000000</v>
+        <v>2846000000</v>
       </c>
       <c r="G5">
         <v>3024000000</v>
@@ -1051,8 +1153,8 @@
       </c>
     </row>
     <row r="6" spans="1:37">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B6">
         <v>801000000</v>
@@ -1161,8 +1263,8 @@
       </c>
     </row>
     <row r="7" spans="1:37">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B7">
         <v>1007000000</v>
@@ -1271,8 +1373,8 @@
       </c>
     </row>
     <row r="8" spans="1:37">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B8">
         <v>1118000000</v>
@@ -1381,8 +1483,8 @@
       </c>
     </row>
     <row r="9" spans="1:37">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B9">
         <v>87000000</v>
@@ -1422,8 +1524,8 @@
       </c>
     </row>
     <row r="10" spans="1:37">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B10">
         <v>48000000</v>
@@ -1466,23 +1568,23 @@
       </c>
     </row>
     <row r="11" spans="1:37">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B11">
-        <v>69000000</v>
+        <v>460000000</v>
       </c>
       <c r="C11">
-        <v>-1168000000</v>
+        <v>-715000000</v>
       </c>
       <c r="D11">
-        <v>-17000000</v>
+        <v>-82000000</v>
       </c>
       <c r="E11">
-        <v>-323000000</v>
+        <v>-344000000</v>
       </c>
       <c r="F11">
-        <v>26000000</v>
+        <v>122000000</v>
       </c>
       <c r="G11">
         <v>229000000</v>
@@ -1576,24 +1678,24 @@
       </c>
     </row>
     <row r="12" spans="1:37">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="AG12">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:37">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="AG13">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:37">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B14">
         <v>1578000000</v>
@@ -1702,8 +1804,8 @@
       </c>
     </row>
     <row r="15" spans="1:37">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B15">
         <v>248000000</v>
@@ -1812,8 +1914,8 @@
       </c>
     </row>
     <row r="16" spans="1:37">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B16">
         <v>1330000000</v>
@@ -1922,16 +2024,16 @@
       </c>
     </row>
     <row r="17" spans="1:36">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="AG17">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:36">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B18">
         <v>1330000000</v>
@@ -2040,8 +2142,8 @@
       </c>
     </row>
     <row r="19" spans="1:36">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B19">
         <v>1.15</v>
@@ -2050,13 +2152,13 @@
         <v>-0.29</v>
       </c>
       <c r="D19">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="E19">
         <v>0.68</v>
       </c>
       <c r="F19">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="G19">
         <v>1.01</v>
@@ -2144,8 +2246,8 @@
       </c>
     </row>
     <row r="20" spans="1:36">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B20">
         <v>1.15</v>
@@ -2248,8 +2350,8 @@
       </c>
     </row>
     <row r="21" spans="1:36">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B21">
         <v>1154000000</v>
@@ -2261,7 +2363,7 @@
         <v>1163000000</v>
       </c>
       <c r="E21">
-        <v>1173000000</v>
+        <v>1174000000</v>
       </c>
       <c r="F21">
         <v>1174000000</v>
@@ -2355,8 +2457,8 @@
       </c>
     </row>
     <row r="22" spans="1:36">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B22">
         <v>1157000000</v>
@@ -2368,7 +2470,7 @@
         <v>1172000000</v>
       </c>
       <c r="E22">
-        <v>1183000000</v>
+        <v>1186000000</v>
       </c>
       <c r="F22">
         <v>1187000000</v>
@@ -2462,23 +2564,23 @@
       </c>
     </row>
     <row r="23" spans="1:36">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B23">
-        <v>0.4224</v>
+        <v>0.4356</v>
       </c>
       <c r="C23">
-        <v>0.3987</v>
+        <v>0.4082</v>
       </c>
       <c r="D23">
-        <v>0.422</v>
+        <v>0.4262</v>
       </c>
       <c r="E23">
-        <v>0.4456</v>
+        <v>0.4458</v>
       </c>
       <c r="F23">
-        <v>0.4642</v>
+        <v>0.4604</v>
       </c>
       <c r="G23">
         <v>0.4848</v>
@@ -2572,23 +2674,23 @@
       </c>
     </row>
     <row r="24" spans="1:36">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B24">
-        <v>0.1671</v>
+        <v>0.1633</v>
       </c>
       <c r="C24">
-        <v>0.114</v>
+        <v>0.1123</v>
       </c>
       <c r="D24">
-        <v>0.1105</v>
+        <v>0.1097</v>
       </c>
       <c r="E24">
         <v>0.1518</v>
       </c>
       <c r="F24">
-        <v>0.1675</v>
+        <v>0.1687</v>
       </c>
       <c r="G24">
         <v>0.1807</v>
@@ -2682,23 +2784,23 @@
       </c>
     </row>
     <row r="25" spans="1:36">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B25">
-        <v>0.2359</v>
+        <v>0.2305</v>
       </c>
       <c r="C25">
-        <v>0.0073</v>
+        <v>0.0072</v>
       </c>
       <c r="D25">
-        <v>0.0977</v>
+        <v>0.097</v>
       </c>
       <c r="E25">
         <v>0.1021</v>
       </c>
       <c r="F25">
-        <v>0.1871</v>
+        <v>0.1885</v>
       </c>
       <c r="G25">
         <v>0.2174</v>
@@ -2792,23 +2894,23 @@
       </c>
     </row>
     <row r="26" spans="1:36">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B26">
-        <v>0.1988</v>
+        <v>0.1943</v>
       </c>
       <c r="C26">
-        <v>-0.0509</v>
+        <v>-0.0501</v>
       </c>
       <c r="D26">
-        <v>0.0791</v>
+        <v>0.0785</v>
       </c>
       <c r="E26">
         <v>0.1158</v>
       </c>
       <c r="F26">
-        <v>0.1746</v>
+        <v>0.1758</v>
       </c>
       <c r="G26">
         <v>0.1898</v>
@@ -2902,23 +3004,23 @@
       </c>
     </row>
     <row r="27" spans="1:36">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B27">
-        <v>1348000000</v>
+        <v>1448000000</v>
       </c>
       <c r="C27">
-        <v>1080000000</v>
+        <v>1097000000</v>
       </c>
       <c r="D27">
-        <v>1028000000</v>
+        <v>1039000000</v>
       </c>
       <c r="E27">
         <v>1376000000</v>
       </c>
       <c r="F27">
-        <v>1411000000</v>
+        <v>1366000000</v>
       </c>
       <c r="G27">
         <v>1443000000</v>
@@ -3012,8 +3114,8 @@
       </c>
     </row>
     <row r="28" spans="1:36">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B28">
         <v>1118000000</v>
@@ -3122,8 +3224,8 @@
       </c>
     </row>
     <row r="29" spans="1:36">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B29">
         <v>1330000000</v>
@@ -3232,16 +3334,16 @@
       </c>
     </row>
     <row r="30" spans="1:36">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="AG30">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:36">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B31">
         <v>1330000000</v>
@@ -3350,8 +3452,8 @@
       </c>
     </row>
     <row r="32" spans="1:36">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B32">
         <v>1.1525</v>
@@ -3457,8 +3559,8 @@
       </c>
     </row>
     <row r="33" spans="1:37">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B33">
         <v>1.1495</v>
@@ -3564,8 +3666,8 @@
       </c>
     </row>
     <row r="34" spans="1:37">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B34">
         <v>1.1525</v>
@@ -3671,8 +3773,8 @@
       </c>
     </row>
     <row r="35" spans="1:37">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B35">
         <v>1.1495</v>
@@ -3778,8 +3880,8 @@
       </c>
     </row>
     <row r="36" spans="1:37">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B36">
         <v>1157000000</v>
@@ -3882,23 +3984,23 @@
       </c>
     </row>
     <row r="37" spans="1:37">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B37">
-        <v>0.2015</v>
+        <v>0.2115</v>
       </c>
       <c r="C37">
         <v>0.1612</v>
       </c>
       <c r="D37">
-        <v>0.1597</v>
+        <v>0.1603</v>
       </c>
       <c r="E37">
-        <v>0.199</v>
+        <v>0.1989</v>
       </c>
       <c r="F37">
-        <v>0.2266</v>
+        <v>0.221</v>
       </c>
       <c r="G37">
         <v>0.2313</v>
@@ -3992,23 +4094,23 @@
       </c>
     </row>
     <row r="38" spans="1:37">
-      <c r="A38" t="s">
-        <v>37</v>
+      <c r="A38" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B38">
-        <v>0.2912</v>
+        <v>0.2845</v>
       </c>
       <c r="C38">
-        <v>0.2188</v>
+        <v>0.2154</v>
       </c>
       <c r="D38">
-        <v>0.193</v>
+        <v>0.1916</v>
       </c>
       <c r="E38">
-        <v>0.2549</v>
+        <v>0.2548</v>
       </c>
       <c r="F38">
-        <v>0.243</v>
+        <v>0.2447</v>
       </c>
       <c r="G38">
         <v>0.2094</v>
